--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3c</t>
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H2">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I2">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J2">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>8.173902850408334</v>
+        <v>34.87758624451266</v>
       </c>
       <c r="R2">
-        <v>73.565125653675</v>
+        <v>313.898276200614</v>
       </c>
       <c r="S2">
-        <v>0.003597864265472143</v>
+        <v>0.01094257770013227</v>
       </c>
       <c r="T2">
-        <v>0.003597864265472144</v>
+        <v>0.01094257770013227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H3">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I3">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J3">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>2.227981058877778</v>
+        <v>5.216139098006666</v>
       </c>
       <c r="R3">
-        <v>20.0518295299</v>
+        <v>46.94525188205999</v>
       </c>
       <c r="S3">
-        <v>0.0009806788241292469</v>
+        <v>0.001636524012140202</v>
       </c>
       <c r="T3">
-        <v>0.0009806788241292469</v>
+        <v>0.001636524012140202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H4">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I4">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J4">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>1.110497673034444</v>
+        <v>1.688286441296</v>
       </c>
       <c r="R4">
-        <v>9.99447905731</v>
+        <v>15.194577971664</v>
       </c>
       <c r="S4">
-        <v>0.0004888019796443999</v>
+        <v>0.0005296870441218635</v>
       </c>
       <c r="T4">
-        <v>0.0004888019796444</v>
+        <v>0.0005296870441218635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H5">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I5">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J5">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>4.834312488866112</v>
+        <v>9.380192134142666</v>
       </c>
       <c r="R5">
-        <v>43.508812399795</v>
+        <v>84.421729207284</v>
       </c>
       <c r="S5">
-        <v>0.002127894161471247</v>
+        <v>0.002942964015641268</v>
       </c>
       <c r="T5">
-        <v>0.002127894161471248</v>
+        <v>0.002942964015641269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>105.316277</v>
       </c>
       <c r="I6">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J6">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>1110.488350369512</v>
+        <v>2023.919742494963</v>
       </c>
       <c r="R6">
-        <v>9994.395153325606</v>
+        <v>18215.27768245466</v>
       </c>
       <c r="S6">
-        <v>0.4887978761355088</v>
+        <v>0.6349894423834226</v>
       </c>
       <c r="T6">
-        <v>0.4887978761355089</v>
+        <v>0.6349894423834226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>105.316277</v>
       </c>
       <c r="I7">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J7">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
         <v>302.6885755810155</v>
@@ -883,10 +883,10 @@
         <v>2724.19718022914</v>
       </c>
       <c r="S7">
-        <v>0.1332328545592142</v>
+        <v>0.09496624089801321</v>
       </c>
       <c r="T7">
-        <v>0.1332328545592142</v>
+        <v>0.09496624089801321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>105.316277</v>
       </c>
       <c r="I8">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J8">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>150.8697560499629</v>
+        <v>97.96997520329069</v>
       </c>
       <c r="R8">
-        <v>1357.827804449666</v>
+        <v>881.7297768296161</v>
       </c>
       <c r="S8">
-        <v>0.06640755511371717</v>
+        <v>0.03073733538858946</v>
       </c>
       <c r="T8">
-        <v>0.06640755511371718</v>
+        <v>0.03073733538858945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>105.316277</v>
       </c>
       <c r="I9">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J9">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>656.7789951973153</v>
+        <v>544.3253989995995</v>
       </c>
       <c r="R9">
-        <v>5911.010956775837</v>
+        <v>4898.928590996396</v>
       </c>
       <c r="S9">
-        <v>0.2890909912166469</v>
+        <v>0.17077795839859</v>
       </c>
       <c r="T9">
-        <v>0.289090991216647</v>
+        <v>0.17077795839859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H10">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I10">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J10">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>17.35318536526333</v>
+        <v>112.9054483869166</v>
       </c>
       <c r="R10">
-        <v>156.17866828737</v>
+        <v>1016.14903548225</v>
       </c>
       <c r="S10">
-        <v>0.007638261263978217</v>
+        <v>0.03542322662699997</v>
       </c>
       <c r="T10">
-        <v>0.007638261263978218</v>
+        <v>0.03542322662699998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H11">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I11">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J11">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>4.730000957017777</v>
+        <v>16.88564453916667</v>
       </c>
       <c r="R11">
-        <v>42.57000861315999</v>
+        <v>151.9708008525</v>
       </c>
       <c r="S11">
-        <v>0.002081979897528775</v>
+        <v>0.005297742684693837</v>
       </c>
       <c r="T11">
-        <v>0.002081979897528775</v>
+        <v>0.005297742684693837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H12">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I12">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J12">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>2.357585148800444</v>
+        <v>5.465307614</v>
       </c>
       <c r="R12">
-        <v>21.218266339204</v>
+        <v>49.187768526</v>
       </c>
       <c r="S12">
-        <v>0.001037725981689788</v>
+        <v>0.001714698740963722</v>
       </c>
       <c r="T12">
-        <v>0.001037725981689788</v>
+        <v>0.001714698740963722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.958375</v>
+      </c>
+      <c r="H13">
+        <v>5.875125</v>
+      </c>
+      <c r="I13">
+        <v>0.05196260806057782</v>
+      </c>
+      <c r="J13">
+        <v>0.05196260806057783</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.50544933333333</v>
+      </c>
+      <c r="N13">
+        <v>46.516348</v>
+      </c>
+      <c r="O13">
+        <v>0.1833422217147727</v>
+      </c>
+      <c r="P13">
+        <v>0.1833422217147727</v>
+      </c>
+      <c r="Q13">
+        <v>30.36548433816667</v>
+      </c>
+      <c r="R13">
+        <v>273.2893590435</v>
+      </c>
+      <c r="S13">
+        <v>0.009526940007920292</v>
+      </c>
+      <c r="T13">
+        <v>0.009526940007920294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5485793333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.645738</v>
-      </c>
-      <c r="I13">
-        <v>0.01527548374419571</v>
-      </c>
-      <c r="J13">
-        <v>0.01527548374419571</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.70876033333333</v>
-      </c>
-      <c r="N13">
-        <v>56.126281</v>
-      </c>
-      <c r="O13">
-        <v>0.2957364019791172</v>
-      </c>
-      <c r="P13">
-        <v>0.2957364019791172</v>
-      </c>
-      <c r="Q13">
-        <v>10.26323927115311</v>
-      </c>
-      <c r="R13">
-        <v>92.369153440378</v>
-      </c>
-      <c r="S13">
-        <v>0.004517516600998933</v>
-      </c>
-      <c r="T13">
-        <v>0.004517516600998934</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.05819</v>
+      </c>
+      <c r="I14">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J14">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>57.65261933333333</v>
+      </c>
+      <c r="N14">
+        <v>172.957858</v>
+      </c>
+      <c r="O14">
+        <v>0.6817060950001529</v>
+      </c>
+      <c r="P14">
+        <v>0.6817060950001529</v>
+      </c>
+      <c r="Q14">
+        <v>1.118268639668889</v>
+      </c>
+      <c r="R14">
+        <v>10.06441775702</v>
+      </c>
+      <c r="S14">
+        <v>0.0003508482895981156</v>
+      </c>
+      <c r="T14">
+        <v>0.0003508482895981156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.05819</v>
+      </c>
+      <c r="I15">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J15">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.622273333333332</v>
+      </c>
+      <c r="N15">
+        <v>25.86682</v>
+      </c>
+      <c r="O15">
+        <v>0.1019529789289588</v>
+      </c>
+      <c r="P15">
+        <v>0.1019529789289588</v>
+      </c>
+      <c r="Q15">
+        <v>0.1672433617555555</v>
+      </c>
+      <c r="R15">
+        <v>1.5051902558</v>
+      </c>
+      <c r="S15">
+        <v>5.247133411158646E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.247133411158646E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.05819</v>
+      </c>
+      <c r="I16">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J16">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.790736</v>
+      </c>
+      <c r="N16">
+        <v>8.372208000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0329987043561157</v>
+      </c>
+      <c r="P16">
+        <v>0.0329987043561157</v>
+      </c>
+      <c r="Q16">
+        <v>0.05413097594666667</v>
+      </c>
+      <c r="R16">
+        <v>0.48717878352</v>
+      </c>
+      <c r="S16">
+        <v>1.698318244065939E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.698318244065939E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.05819</v>
+      </c>
+      <c r="I17">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J17">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.50544933333333</v>
+      </c>
+      <c r="N17">
+        <v>46.516348</v>
+      </c>
+      <c r="O17">
+        <v>0.1833422217147727</v>
+      </c>
+      <c r="P17">
+        <v>0.1833422217147727</v>
+      </c>
+      <c r="Q17">
+        <v>0.3007540322355555</v>
+      </c>
+      <c r="R17">
+        <v>2.70678629012</v>
+      </c>
+      <c r="S17">
+        <v>9.435929262115818E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.435929262115818E-05</v>
       </c>
     </row>
   </sheetData>
